--- a/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/NaiveBayes_predicted_probs_1_features.xlsx
+++ b/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/NaiveBayes_predicted_probs_1_features.xlsx
@@ -387,702 +387,702 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.07416190328207257</v>
+        <v>0.2710672590279518</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.02405799614096469</v>
+        <v>0.270588273506802</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0.0003572549009694364</v>
+        <v>0.5543781175765008</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0.4254021754108926</v>
+        <v>0.3426618994827491</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0.8974702010594089</v>
+        <v>0.5433081835003597</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.7363376308485412</v>
+        <v>0.4347255102058917</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.5926678712925277</v>
+        <v>0.3846138665327848</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0.084169743822404</v>
+        <v>0.2727752704219097</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>0.9335488585129825</v>
+        <v>0.5939523405203084</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0.1623691844297976</v>
+        <v>0.2880777542576326</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>0.7584493047523531</v>
+        <v>0.4447136260086604</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0.2190039821038563</v>
+        <v>0.299517184292391</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>0.7100399533593087</v>
+        <v>0.4238709458505652</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>0.1136785907932346</v>
+        <v>0.2783414952415094</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>0.1041303956741776</v>
+        <v>0.2764864914557718</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>0.8051705528169001</v>
+        <v>0.4692457240524106</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>0.04503717805920645</v>
+        <v>0.267683510330483</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>0.7448918028377086</v>
+        <v>0.438487110089822</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>0.3769531487902451</v>
+        <v>0.3320688108802533</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>0.9020919513863453</v>
+        <v>0.5486806099485281</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>0.04608154289090739</v>
+        <v>0.2677265285261239</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>0.1136554350317357</v>
+        <v>0.2783369574073692</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>0.006142802428739512</v>
+        <v>0.3057740225587867</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>0.001218621733539902</v>
+        <v>0.4130430977117905</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>0.2527801210680098</v>
+        <v>0.3063510884732012</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>0.07307659046053165</v>
+        <v>0.2708915820346496</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>0.3504365742195668</v>
+        <v>0.3264414889446905</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>0.2305393651519331</v>
+        <v>0.301848935170844</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>0.01690576403071835</v>
+        <v>0.3011655759827811</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>0.0008449136520026248</v>
+        <v>0.2826219438952194</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>0.0003056107569725712</v>
+        <v>0.2808581913105291</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>0.06461143234303868</v>
+        <v>0.3171732912637694</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>0.4353934521834404</v>
+        <v>0.3580511551901303</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>0.9997620869999321</v>
+        <v>0.6620229475431487</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>0.2076550275887318</v>
+        <v>0.3375697973770509</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>1.532353316775926E-05</v>
+        <v>0.2878853278118177</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>0.233883003310781</v>
+        <v>0.3402422764414822</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>0.8143966653106097</v>
+        <v>0.3992586213514202</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>0.004888398102132975</v>
+        <v>0.2909195277733627</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>0.5966149502921416</v>
+        <v>0.3722575387341145</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>0.9976017278883385</v>
+        <v>0.5585076081987722</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>0.0449018083920539</v>
+        <v>0.3122290191918283</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>0.0009798883123300485</v>
+        <v>0.2830606715958147</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>0.9999894850375762</v>
+        <v>0.8006602352525143</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>1.273626787140122E-06</v>
+        <v>0.3075504035124416</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>0.3594966592055738</v>
+        <v>0.3516345412353004</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>8.911738480553819E-06</v>
+        <v>0.2910862066600547</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>0.9997813239460233</v>
+        <v>0.665912316410889</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>0.0006561891288087532</v>
+        <v>0.2819813062553532</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>0.9957767446253863</v>
+        <v>0.5348250217380196</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>0.4353934521834404</v>
+        <v>0.3580511551901303</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>0.9500261121131257</v>
+        <v>0.4424565658810377</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>0.4791783903298638</v>
+        <v>0.3617611122132949</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>0.4950885892341783</v>
+        <v>0.3631250252154044</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>0.002380376522832411</v>
+        <v>0.2866846958388938</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>0.1414131923039789</v>
+        <v>0.3298722699029489</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>0.1766829302536875</v>
+        <v>0.1121019248228207</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>0.6398374896974817</v>
+        <v>0.366781542396003</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>0.8819764673464091</v>
+        <v>0.451130985183596</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>0.08177101236812215</v>
+        <v>0.1712504871079201</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>0.08768850356067769</v>
+        <v>0.1792502032644762</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>0.1112414461004483</v>
+        <v>0.2012095974646366</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>0.4216515657738404</v>
+        <v>0.3135315658164601</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>0.3388580119942219</v>
+        <v>0.292231537223632</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>0.999996391455928</v>
+        <v>0.8735003358199492</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>0.1026576381240299</v>
+        <v>0.1942879045459448</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>0.6771949346999536</v>
+        <v>0.3766498909670641</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>0.9589780415419927</v>
+        <v>0.515821438246762</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>0.3091754054061441</v>
+        <v>0.2839789285935392</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>0.152117166970679</v>
+        <v>0.2264058683174684</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>0.4875664118686331</v>
+        <v>0.3295227387631746</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>0.7831610423651948</v>
+        <v>0.4087267806232753</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>0.0759528975161784</v>
+        <v>0.1399909376097383</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>0.07395033775535227</v>
+        <v>0.1500523252193343</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>0.1776795281793235</v>
+        <v>0.2385694285522919</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>0.2642811912097408</v>
+        <v>0.2705014056407835</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>0.07781638086800211</v>
+        <v>0.1642424413322321</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>0.728063938947922</v>
+        <v>0.3910857200594929</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>0.686256926132962</v>
+        <v>0.3791255292952979</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>0.08429023201078276</v>
+        <v>0.1748991034255708</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>0.1588789221589982</v>
+        <v>0.2298138079499017</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0.4216515657738404</v>
+        <v>0.3135315658164601</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>0.1190586861325859</v>
+        <v>0.206855038141781</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>0.07790018438244424</v>
+        <v>0.1644171360964197</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>0.009900971850407343</v>
+        <v>0.2589479799013704</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>0.3554885624094783</v>
+        <v>0.3344492956449321</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>0.241578153563145</v>
+        <v>0.3203258805441255</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>0.006369240352134656</v>
+        <v>0.2539304398920222</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>0.3185484870422974</v>
+        <v>0.3300461478849738</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>0.001108582856202432</v>
+        <v>0.2391823864963244</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>0.6368361371654514</v>
+        <v>0.3690065735810062</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>0.006824792102617576</v>
+        <v>0.2546785287734701</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>0.5891021538511584</v>
+        <v>0.3624959131014049</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>0.002584618201954448</v>
+        <v>0.2453600753595284</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>0.9970563942926561</v>
+        <v>0.6187185783412531</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0.07284515770815102</v>
+        <v>0.2902165719592944</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>0.9837580299933941</v>
+        <v>0.5209894287278893</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>0.9981314068871341</v>
+        <v>0.6462058494483363</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>0.9794951703125022</v>
+        <v>0.5085723399497745</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>0.9997386182981223</v>
+        <v>0.7650499281554077</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>0.2618436608954506</v>
+        <v>0.322985714640991</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>0.9944644252380204</v>
+        <v>0.5813532606139084</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>0.7465126120798563</v>
+        <v>0.3867727882301619</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>0.1980589192927603</v>
+        <v>0.3142436397463514</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>0.8247625262344437</v>
+        <v>0.4041265922273701</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>0.9304908886226405</v>
+        <v>0.4473779726961926</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>0.006184478958802393</v>
+        <v>0.253615795981812</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>0.9910424311920352</v>
+        <v>0.5537783242773923</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>0.9999840143456996</v>
+        <v>0.9021292473834955</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>0.005203210225443507</v>
+        <v>0.2518182812772204</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>0.2829129004890221</v>
+        <v>0.3256652339071301</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>0.7770891157879549</v>
+        <v>0.3928733902282583</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>0.523764024232504</v>
+        <v>0.3729497588460621</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>0.5235469997017209</v>
+        <v>0.3729089843406829</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>0.941209638088443</v>
+        <v>0.6559611274950513</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>0.00127282786184922</v>
+        <v>0.2453491787085018</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>0.001699342188391737</v>
+        <v>0.2469910275626711</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>0.6551879842427528</v>
+        <v>0.401557334238303</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>0.007780682485127989</v>
+        <v>0.2589489825752703</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>0.002340169924185241</v>
+        <v>0.2490222899488525</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>0.7642558991220952</v>
+        <v>0.4367620639597966</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>0.9432543478424571</v>
+        <v>0.6691346159707864</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>0.1191782241083204</v>
+        <v>0.3033707688135017</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>0.1502146639688676</v>
+        <v>0.3098249311407973</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>0.5407761733558362</v>
+        <v>0.3761953543538346</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>0.2731669603128099</v>
+        <v>0.3312685567375427</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>0.5852519614461956</v>
+        <v>0.385215125815395</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>0.06855680854497077</v>
+        <v>0.2904944792840136</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>0.7715527185653108</v>
+        <v>0.4398405974162314</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>0.1356267194207809</v>
+        <v>0.3068814544897033</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>0.6519994100892266</v>
+        <v>0.4007374683313203</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>0.6164211223521242</v>
+        <v>0.3921107293316012</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>0.3781925691619343</v>
+        <v>0.3480203159182215</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>0.9485587908478744</v>
+        <v>0.7740129563754308</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>1.349698288952846E-06</v>
+        <v>0.2431868354165918</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>0.8196996415102862</v>
+        <v>0.4642303550466289</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>0.3055586279434297</v>
+        <v>0.3364560550232044</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>0.8551004652249561</v>
+        <v>0.4892103309215669</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>0.8916068894160984</v>
+        <v>0.5277158114366556</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>0.01055430503408139</v>
+        <v>0.2621420071433503</v>
       </c>
     </row>
   </sheetData>

--- a/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/NaiveBayes_predicted_probs_1_features.xlsx
+++ b/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/NaiveBayes_predicted_probs_1_features.xlsx
@@ -387,702 +387,702 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.2710672590279518</v>
+        <v>0.3125696031774269</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.270588273506802</v>
+        <v>0.2733521716610151</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0.5543781175765008</v>
+        <v>0.4311183343559246</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0.3426618994827491</v>
+        <v>0.5141579115987834</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0.5433081835003597</v>
+        <v>0.8392689807183223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.4347255102058917</v>
+        <v>0.6973453016707758</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.3846138665327848</v>
+        <v>0.6055271094658932</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0.2727752704219097</v>
+        <v>0.3199881284564034</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>0.5939523405203084</v>
+        <v>0.8838699712764551</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0.2880777542576326</v>
+        <v>0.3716487742001366</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>0.4447136260086604</v>
+        <v>0.7135022837250664</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0.299517184292391</v>
+        <v>0.4046175026306148</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>0.4238709458505652</v>
+        <v>0.6789975497766884</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>0.2783414952415094</v>
+        <v>0.3406368874436598</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>0.2764864914557718</v>
+        <v>0.3341389282894285</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>0.4692457240524106</v>
+        <v>0.7503306994961508</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>0.267683510330483</v>
+        <v>0.2896926009255028</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>0.438487110089822</v>
+        <v>0.7035110158550391</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>0.3320688108802533</v>
+        <v>0.4888782219900722</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>0.5486806099485281</v>
+        <v>0.8445625272522241</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>0.2677265285261239</v>
+        <v>0.2905393897587913</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>0.2783369574073692</v>
+        <v>0.3406213217667365</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>0.3057740225587867</v>
+        <v>0.2798879731047078</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>0.4130430977117905</v>
+        <v>0.3737665449887217</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>0.3063510884732012</v>
+        <v>0.4232779240162083</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>0.2708915820346496</v>
+        <v>0.3117511418012936</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>0.3264414889446905</v>
+        <v>0.4750613008608697</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>0.301848935170844</v>
+        <v>0.4110565125793468</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>0.3011655759827811</v>
+        <v>0.2870256741065711</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>0.2826219438952194</v>
+        <v>0.283178948758503</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>0.2808581913105291</v>
+        <v>0.2888101071319028</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>0.3171732912637694</v>
+        <v>0.2997619572793021</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>0.3580511551901303</v>
+        <v>0.3410403324325254</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>0.6620229475431487</v>
+        <v>0.724574966764338</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>0.3375697973770509</v>
+        <v>0.3193274617769642</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>0.2878853278118177</v>
+        <v>0.3261969544340418</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>0.3402422764414822</v>
+        <v>0.3220641887312801</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>0.3992586213514202</v>
+        <v>0.3884990997932961</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>0.2909195277733627</v>
+        <v>0.2816393126480866</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>0.3722575387341145</v>
+        <v>0.3569277454133977</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>0.5585076081987722</v>
+        <v>0.5923514537759115</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>0.3122290191918283</v>
+        <v>0.2954902343731096</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>0.2830606715958147</v>
+        <v>0.2826478627672037</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>0.8006602352525143</v>
+        <v>0.8308115850646614</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>0.3075504035124416</v>
+        <v>0.3830565290126224</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>0.3516345412353004</v>
+        <v>0.3340682110147267</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>0.2910862066600547</v>
+        <v>0.3364895156992154</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>0.665912316410889</v>
+        <v>0.729335941289085</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>0.2819813062553532</v>
+        <v>0.2842544585734995</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>0.5348250217380196</v>
+        <v>0.5613024384155307</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>0.3580511551901303</v>
+        <v>0.3410403324325254</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>0.4424565658810377</v>
+        <v>0.4417009204903918</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>0.3617611122132949</v>
+        <v>0.3451324760072725</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>0.3631250252154044</v>
+        <v>0.3466474539208473</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>0.2866846958388938</v>
+        <v>0.2810087405503972</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>0.3298722699029489</v>
+        <v>0.3116428132779129</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>0.1121019248228207</v>
+        <v>0.1151802501312586</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>0.366781542396003</v>
+        <v>0.4131090487927313</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>0.451130985183596</v>
+        <v>0.5174287527586072</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>0.1712504871079201</v>
+        <v>0.175435223281899</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>0.1792502032644762</v>
+        <v>0.1844814836267308</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>0.2012095974646366</v>
+        <v>0.2098397773888932</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>0.3135315658164601</v>
+        <v>0.3466181579791648</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>0.292231537223632</v>
+        <v>0.3201370419906831</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>0.8735003358199492</v>
+        <v>0.9281981523284728</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>0.1942879045459448</v>
+        <v>0.2017717517317864</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>0.3766498909670641</v>
+        <v>0.4254209969815781</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>0.515821438246762</v>
+        <v>0.5949244860296582</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>0.2839789285935392</v>
+        <v>0.3099177270143192</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>0.2264058683174684</v>
+        <v>0.2396908998014774</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>0.3295227387631746</v>
+        <v>0.3665666670425443</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>0.4087267806232753</v>
+        <v>0.4652947745268631</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>0.1399909376097383</v>
+        <v>0.1414679533818465</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>0.1500523252193343</v>
+        <v>0.1521091694637708</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>0.2385694285522919</v>
+        <v>0.2543293487628243</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>0.2705014056407835</v>
+        <v>0.293292869664179</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>0.1642424413322321</v>
+        <v>0.1676107199457648</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>0.3910857200594929</v>
+        <v>0.4433990260773977</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>0.3791255292952979</v>
+        <v>0.4285071722288555</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>0.1748991034255708</v>
+        <v>0.1795468514879033</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>0.2298138079499017</v>
+        <v>0.2437789259881603</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0.3135315658164601</v>
+        <v>0.3466181579791648</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>0.206855038141781</v>
+        <v>0.2164657054741286</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>0.1644171360964197</v>
+        <v>0.1678045325658371</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>0.2589479799013704</v>
+        <v>0.2383826522864713</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>0.3344492956449321</v>
+        <v>0.2429656932904654</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>0.3203258805441255</v>
+        <v>0.2384912025790848</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>0.2539304398920222</v>
+        <v>0.2416004635833213</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>0.3300461478849738</v>
+        <v>0.2414728930797793</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>0.2391823864963244</v>
+        <v>0.2613903382118357</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>0.3690065735810062</v>
+        <v>0.2571607560569442</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>0.2546785287734701</v>
+        <v>0.241049903527727</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>0.3624959131014049</v>
+        <v>0.2541901339100116</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>0.2453600753595284</v>
+        <v>0.2503884713658914</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>0.6187185783412531</v>
+        <v>0.4419461488710635</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0.2902165719592944</v>
+        <v>0.2329013274634166</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>0.5209894287278893</v>
+        <v>0.3541539650763211</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>0.6462058494483363</v>
+        <v>0.4705682916292833</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>0.5085723399497745</v>
+        <v>0.3444481928451564</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>0.7650499281554077</v>
+        <v>0.6174481865016695</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>0.322985714640991</v>
+        <v>0.2392614859860849</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>0.5813532606139084</v>
+        <v>0.4059032843901662</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>0.3867727882301619</v>
+        <v>0.2658616571528258</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>0.3142436397463514</v>
+        <v>0.2368713413201221</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>0.4041265922273701</v>
+        <v>0.2751254138560519</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>0.4473779726961926</v>
+        <v>0.3011298839775741</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>0.253615795981812</v>
+        <v>0.2418403422197213</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>0.5537783242773923</v>
+        <v>0.381305190592184</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>0.9021292473834955</v>
+        <v>0.838463679913248</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>0.2518182812772204</v>
+        <v>0.2433117432829364</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>0.3256652339071301</v>
+        <v>0.2400730651956446</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>0.3928733902282583</v>
+        <v>0.2690361314870132</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>0.3729497588460621</v>
+        <v>0.335061154664515</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>0.3729089843406829</v>
+        <v>0.3350196855684155</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>0.6559611274950513</v>
+        <v>0.6616666244237123</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>0.2453491787085018</v>
+        <v>0.2322366359002626</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>0.2469910275626711</v>
+        <v>0.2323513642878144</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>0.401557334238303</v>
+        <v>0.3647840759773319</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>0.2589489825752703</v>
+        <v>0.236673783574651</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>0.2490222899488525</v>
+        <v>0.2327211128750909</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>0.4367620639597966</v>
+        <v>0.4028781216879856</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>0.6691346159707864</v>
+        <v>0.6776167392800102</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>0.3033707688135017</v>
+        <v>0.2691820713751304</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>0.3098249311407973</v>
+        <v>0.274776401413417</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>0.3761953543538346</v>
+        <v>0.3383706712187639</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>0.3312685567375427</v>
+        <v>0.2942526445724562</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>0.385215125815395</v>
+        <v>0.3476551819298414</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>0.2904944792840136</v>
+        <v>0.2584909548442211</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>0.4398405974162314</v>
+        <v>0.4062793182934673</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>0.3068814544897033</v>
+        <v>0.2722076070002824</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>0.4007374683313203</v>
+        <v>0.3639157808507955</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>0.3921107293316012</v>
+        <v>0.3548360569898078</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>0.3480203159182215</v>
+        <v>0.3102457498832427</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>0.7740129563754308</v>
+        <v>0.7983031102897067</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>0.2431868354165918</v>
+        <v>0.2463947203520344</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>0.4642303550466289</v>
+        <v>0.4335797814982422</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>0.3364560550232044</v>
+        <v>0.2991397123146213</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>0.4892103309215669</v>
+        <v>0.462131794981267</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>0.5277158114366556</v>
+        <v>0.5071183628490424</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>0.2621420071433503</v>
+        <v>0.238415956244834</v>
       </c>
     </row>
   </sheetData>
